--- a/REGULAR/CTO/PERIDO, BEVERLY.xlsx
+++ b/REGULAR/CTO/PERIDO, BEVERLY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -180,9 +180,6 @@
     <t>SP(2-0-0)</t>
   </si>
   <si>
-    <t>5/13,16/2022</t>
-  </si>
-  <si>
     <t>FL(1-0-0)</t>
   </si>
   <si>
@@ -250,6 +247,12 @@
   </si>
   <si>
     <t>UT(0-4-49)</t>
+  </si>
+  <si>
+    <t>5/13,11/2022</t>
+  </si>
+  <si>
+    <t>UT(0-1-12)</t>
   </si>
 </sst>
 </file>
@@ -2357,7 +2360,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K146" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2704,12 +2707,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K144"/>
+  <dimension ref="A2:K146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,7 +2877,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.5470000000000006</v>
+        <v>0.39700000000000202</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2884,7 +2887,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>18.25</v>
+        <v>17.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2972,43 +2975,39 @@
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
       <c r="K13" s="20" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1.25</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C14" s="13"/>
       <c r="D14" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G14" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="20" t="s">
-        <v>70</v>
+      <c r="K14" s="50">
+        <v>44691</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="39">
-        <v>0.60199999999999998</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
@@ -3019,110 +3018,110 @@
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="50"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C16" s="13">
         <v>1.25</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="39">
+        <v>3</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="20"/>
       <c r="G16" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H16" s="39">
-        <v>1</v>
-      </c>
+      <c r="H16" s="39"/>
       <c r="I16" s="9"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="50">
-        <v>44762</v>
+      <c r="K16" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="39">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="43">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="49">
-        <v>44749</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="39">
-        <v>0.48299999999999998</v>
-      </c>
+      <c r="C18" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="39"/>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H18" s="39"/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H18" s="39">
+        <v>1</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="50"/>
+      <c r="K18" s="50">
+        <v>44762</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A19" s="40"/>
       <c r="B19" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1.25</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C19" s="13"/>
       <c r="D19" s="43">
         <v>1</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G19" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="9"/>
       <c r="J19" s="12"/>
       <c r="K19" s="49">
-        <v>44799</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39">
-        <v>2</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
@@ -3133,64 +3132,64 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="50" t="s">
-        <v>66</v>
-      </c>
+      <c r="K20" s="50"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="39">
-        <v>0.33300000000000002</v>
+      <c r="A21" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D21" s="43">
+        <v>1</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H21" s="39"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H21" s="43"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="50"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="49">
+        <v>44799</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="13">
-        <v>1.25</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C22" s="13"/>
       <c r="D22" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G22" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="50">
-        <v>44827</v>
+      <c r="K22" s="50" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39">
-        <v>1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
@@ -3201,54 +3200,54 @@
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="50">
-        <v>44813</v>
-      </c>
+      <c r="K23" s="50"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="40">
+        <v>44805</v>
+      </c>
       <c r="B24" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D24" s="39">
-        <v>0.42699999999999999</v>
+        <v>1</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="50"/>
+      <c r="K24" s="50">
+        <v>44827</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="13">
-        <v>1.25</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C25" s="13"/>
       <c r="D25" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G25" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20" t="s">
-        <v>63</v>
+      <c r="K25" s="50">
+        <v>44813</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3258,7 +3257,7 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39">
-        <v>0.30599999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
@@ -3269,19 +3268,21 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="50"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
       </c>
-      <c r="D27" s="39"/>
+      <c r="D27" s="39">
+        <v>2</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
@@ -3291,18 +3292,18 @@
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="50">
-        <v>44867</v>
+      <c r="K27" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39">
-        <v>1</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
@@ -3313,64 +3314,62 @@
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="50">
-        <v>44890</v>
-      </c>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="40">
+        <v>44866</v>
+      </c>
       <c r="B29" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="39">
-        <v>0.20400000000000001</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="50"/>
+      <c r="K29" s="50">
+        <v>44867</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="13">
-        <v>1.25</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C30" s="13"/>
       <c r="D30" s="39">
         <v>1</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G30" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="50">
-        <v>44904</v>
+        <v>44890</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39">
-        <v>1</v>
+        <v>0.20400000000000001</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
@@ -3381,37 +3380,43 @@
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="50">
-        <v>44922</v>
-      </c>
+      <c r="K31" s="50"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="40">
+        <v>44896</v>
+      </c>
       <c r="B32" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D32" s="39">
-        <v>0.34799999999999998</v>
+        <v>1</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="50"/>
+      <c r="K32" s="50">
+        <v>44904</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="20"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="39"/>
+      <c r="D33" s="39">
+        <v>1</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
       <c r="G33" s="13" t="str">
@@ -3421,69 +3426,61 @@
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="50"/>
+      <c r="K33" s="50">
+        <v>44922</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="40">
-        <v>44927</v>
-      </c>
+      <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="13">
-        <v>1.25</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C34" s="13"/>
       <c r="D34" s="39">
-        <v>1</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G34" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="50">
-        <v>44950</v>
-      </c>
+      <c r="K34" s="50"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="39"/>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G35" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="50">
-        <v>44967</v>
-      </c>
+      <c r="K35" s="50"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" s="13">
         <v>1.25</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="39">
+        <v>1</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13">
@@ -3494,42 +3491,44 @@
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="50">
-        <v>45019</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="40">
+        <v>44958</v>
+      </c>
       <c r="B37" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="C37" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D37" s="39"/>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G37" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="50">
-        <v>44999</v>
+        <v>44967</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>54</v>
+        <v>44986</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C38" s="13">
         <v>1.25</v>
       </c>
-      <c r="D38" s="39">
-        <v>2</v>
-      </c>
+      <c r="D38" s="39"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13">
@@ -3539,59 +3538,59 @@
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20" t="s">
-        <v>55</v>
+      <c r="K38" s="50">
+        <v>45019</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A39" s="40"/>
+      <c r="B39" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="13"/>
       <c r="D39" s="39"/>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G39" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20"/>
+      <c r="K39" s="50">
+        <v>44999</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>57</v>
+        <v>45017</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
-      <c r="D40" s="39"/>
+      <c r="D40" s="39">
+        <v>2</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H40" s="39">
-        <v>2</v>
-      </c>
+      <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -3611,34 +3610,44 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="13"/>
+        <v>45078</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D42" s="39"/>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H42" s="39"/>
+      <c r="G42" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H42" s="39">
+        <v>2</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B43" s="20"/>
-      <c r="C43" s="13"/>
+      <c r="C43" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D43" s="39"/>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G43" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
@@ -3647,9 +3656,11 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B44" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C44" s="13"/>
       <c r="D44" s="39"/>
       <c r="E44" s="9"/>
@@ -3658,14 +3669,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H44" s="39"/>
+      <c r="H44" s="39">
+        <v>1</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="K44" s="50">
+        <v>45140</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3683,7 +3698,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3701,7 +3716,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3719,7 +3734,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3737,7 +3752,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3755,7 +3770,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3773,7 +3788,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3791,7 +3806,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3809,7 +3824,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3827,7 +3842,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3845,7 +3860,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3863,7 +3878,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3881,7 +3896,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3899,7 +3914,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3917,7 +3932,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3935,7 +3950,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3953,7 +3968,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -3971,7 +3986,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -3989,7 +4004,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4007,7 +4022,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4025,7 +4040,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4043,7 +4058,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4061,7 +4076,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4079,7 +4094,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4097,7 +4112,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4115,7 +4130,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4133,7 +4148,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4151,7 +4166,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4169,7 +4184,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4187,7 +4202,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4205,7 +4220,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4223,7 +4238,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4241,7 +4256,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4259,7 +4274,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4277,7 +4292,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4295,7 +4310,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4313,7 +4328,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4331,7 +4346,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4349,7 +4364,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4367,7 +4382,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4385,7 +4400,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4403,7 +4418,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4421,7 +4436,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4439,7 +4454,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4457,7 +4472,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4475,7 +4490,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4493,7 +4508,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4511,7 +4526,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4529,7 +4544,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4547,7 +4562,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4565,7 +4580,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4583,7 +4598,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4601,7 +4616,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4619,7 +4634,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4637,7 +4652,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4655,7 +4670,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4673,7 +4688,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4691,7 +4706,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4709,7 +4724,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4727,7 +4742,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4745,7 +4760,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4763,7 +4778,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4781,7 +4796,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4799,7 +4814,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4817,7 +4832,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4835,7 +4850,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4853,7 +4868,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4871,7 +4886,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4889,7 +4904,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4907,7 +4922,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4924,7 +4939,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>47300</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -4940,7 +4957,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>47331</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -5388,20 +5407,52 @@
       <c r="K143" s="20"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="41"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="42"/>
-      <c r="D144" s="43"/>
+      <c r="A144" s="40"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H144" s="43"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
       <c r="I144" s="9"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="15"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="40"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="41"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="42"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="43"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5512,14 +5563,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.60199999999999998</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -5543,7 +5594,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
@@ -5568,7 +5619,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>19.797000000000001</v>
+        <v>17.647000000000002</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/PERIDO, BEVERLY.xlsx
+++ b/REGULAR/CTO/PERIDO, BEVERLY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9E0489-D8BC-4951-9121-B52FD3B532A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -231,21 +232,9 @@
     <t>UT(0-3-25)</t>
   </si>
   <si>
-    <t>8/8,12/2022</t>
-  </si>
-  <si>
-    <t>UT(0-2-40)</t>
-  </si>
-  <si>
     <t>UT(0-3-52)</t>
   </si>
   <si>
-    <t>A(3-0-0)</t>
-  </si>
-  <si>
-    <t>6/8,24,27/2022</t>
-  </si>
-  <si>
     <t>UT(0-4-49)</t>
   </si>
   <si>
@@ -253,12 +242,24 @@
   </si>
   <si>
     <t>UT(0-1-12)</t>
+  </si>
+  <si>
+    <t>UT(0-1-34)</t>
+  </si>
+  <si>
+    <t>UT(0-1-40)</t>
+  </si>
+  <si>
+    <t>6/8,27/2022</t>
+  </si>
+  <si>
+    <t>UT(0-3-7)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -956,7 +957,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -999,7 +1000,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1063,7 +1064,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1124,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1189,7 +1190,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1252,7 +1253,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1351,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1409,7 +1410,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1475,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1518,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1593,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1778,7 +1779,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1845,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,7 +1903,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1969,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2024,7 +2025,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2100,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2143,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2209,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2265,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2344,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2360,25 +2361,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K146" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2685,7 +2686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2695,7 +2696,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2703,34 +2704,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K146"/>
+  <dimension ref="A2:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2751,7 +2752,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2773,7 +2774,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2795,7 +2796,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2803,7 +2804,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2816,7 +2817,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -2833,7 +2834,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2877,7 +2878,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0.39700000000000202</v>
+        <v>2.1859999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2887,12 +2888,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>17.25</v>
+        <v>18.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2914,15 +2915,19 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44621</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C11" s="13">
         <v>1.25</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="39">
+        <v>1</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
@@ -2932,39 +2937,43 @@
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
-        <v>44652</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D12" s="39"/>
+      <c r="K11" s="50">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="39">
+        <v>0.20800000000000002</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G12" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C13" s="13">
         <v>1.25</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="39">
+        <v>0.19600000000000001</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
@@ -2974,40 +2983,40 @@
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="40">
+        <v>44682</v>
+      </c>
       <c r="B14" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="39">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="39"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="50">
-        <v>44691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="39">
-        <v>0.15000000000000002</v>
+        <v>1</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
@@ -3018,178 +3027,178 @@
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="50"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
-        <v>44713</v>
-      </c>
+      <c r="K15" s="50">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C16" s="13"/>
       <c r="D16" s="39">
-        <v>3</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G16" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="9"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="K16" s="50"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="40">
+        <v>44713</v>
+      </c>
       <c r="B17" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D17" s="39">
-        <v>0.60199999999999998</v>
+        <v>2</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G17" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
-        <v>44743</v>
-      </c>
+      <c r="K17" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D18" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="39">
+        <v>0.60199999999999998</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H18" s="39">
-        <v>1</v>
-      </c>
+      <c r="G18" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H18" s="39"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="50">
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H19" s="39">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="50">
         <v>44762</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="15" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="43">
+      <c r="C20" s="13"/>
+      <c r="D20" s="43">
         <v>1</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="49">
+      <c r="E20" s="9"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="49">
         <v>44749</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="39">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="39">
         <v>0.48299999999999998</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="50"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
+      <c r="E21" s="9"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="50"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="40">
         <v>44774</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C22" s="13">
         <v>1.25</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D22" s="43">
         <v>1</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="42">
+      <c r="E22" s="9"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="49">
+      <c r="H22" s="43"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="49">
         <v>44799</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="39">
-        <v>2</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39">
-        <v>0.33300000000000002</v>
+        <v>1</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
@@ -3200,64 +3209,64 @@
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="50"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
-        <v>44805</v>
-      </c>
+      <c r="K23" s="50">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="13">
-        <v>1.25</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C24" s="13"/>
       <c r="D24" s="39">
-        <v>1</v>
+        <v>0.39</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G24" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="50">
-        <v>44827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="K24" s="50"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="40">
+        <v>44805</v>
+      </c>
       <c r="B25" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="39">
         <v>1</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="50">
-        <v>44813</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39">
-        <v>0.42699999999999999</v>
+        <v>1</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
@@ -3268,108 +3277,108 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
-        <v>44835</v>
-      </c>
+      <c r="K26" s="50">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="13">
-        <v>1.25</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C27" s="13"/>
       <c r="D27" s="39">
-        <v>2</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G27" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="K27" s="50"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="40">
+        <v>44835</v>
+      </c>
       <c r="B28" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D28" s="39">
-        <v>0.30599999999999999</v>
+        <v>2</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40">
-        <v>44866</v>
-      </c>
+      <c r="K28" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D29" s="39"/>
+        <v>63</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="39">
+        <v>0.30599999999999999</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G29" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="50">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="40">
+        <v>44866</v>
+      </c>
       <c r="B30" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="39">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D30" s="39"/>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G30" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="50">
-        <v>44890</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39">
-        <v>0.20400000000000001</v>
+        <v>1</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
@@ -3380,64 +3389,64 @@
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="50"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40">
-        <v>44896</v>
-      </c>
+      <c r="K31" s="50">
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="13">
-        <v>1.25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="39">
-        <v>1</v>
+        <v>0.20400000000000001</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G32" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="50">
-        <v>44904</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="K32" s="50"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="40">
+        <v>44896</v>
+      </c>
       <c r="B33" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D33" s="39">
         <v>1</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G33" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
       <c r="K33" s="50">
-        <v>44922</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="39">
-        <v>0.34799999999999998</v>
+        <v>1</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
@@ -3448,15 +3457,19 @@
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="50"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="20"/>
+      <c r="K34" s="50">
+        <v>44922</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="39"/>
+      <c r="D35" s="39">
+        <v>0.34799999999999998</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13" t="str">
@@ -3468,43 +3481,37 @@
       <c r="J35" s="11"/>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D36" s="39">
-        <v>1</v>
-      </c>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G36" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="50">
-        <v>44950</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="50"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C37" s="13">
         <v>1.25</v>
       </c>
-      <c r="D37" s="39"/>
+      <c r="D37" s="39">
+        <v>1</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
@@ -3515,12 +3522,12 @@
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="50">
-        <v>44967</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>50</v>
@@ -3539,64 +3546,66 @@
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
       <c r="K38" s="50">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="40">
+        <v>44986</v>
+      </c>
       <c r="B39" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D39" s="39"/>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G39" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
       <c r="K39" s="50">
-        <v>44999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D40" s="39">
-        <v>2</v>
-      </c>
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G40" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="50">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B41" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="C41" s="13">
         <v>1.25</v>
       </c>
-      <c r="D41" s="39"/>
+      <c r="D41" s="39">
+        <v>2</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
@@ -3606,15 +3615,15 @@
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>45047</v>
+      </c>
+      <c r="B42" s="20"/>
       <c r="C42" s="13">
         <v>1.25</v>
       </c>
@@ -3625,20 +3634,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H42" s="39">
-        <v>2</v>
-      </c>
+      <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B43" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C43" s="13">
         <v>1.25</v>
       </c>
@@ -3649,56 +3656,64 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H43" s="39"/>
+      <c r="H43" s="39">
+        <v>2</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="13"/>
+        <v>45108</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D44" s="39"/>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H44" s="39">
-        <v>1</v>
-      </c>
+      <c r="G44" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="50">
-        <v>45140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="13"/>
+        <v>45139</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H45" s="39"/>
+      <c r="G45" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H45" s="39">
+        <v>1</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="50">
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3714,9 +3729,9 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3732,9 +3747,9 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3750,9 +3765,9 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3768,9 +3783,9 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3786,9 +3801,9 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3804,9 +3819,9 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3822,9 +3837,9 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3840,9 +3855,9 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3858,9 +3873,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3876,9 +3891,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3894,9 +3909,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3912,9 +3927,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3930,9 +3945,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3948,9 +3963,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3966,9 +3981,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -3984,9 +3999,9 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4002,9 +4017,9 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4020,9 +4035,9 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4038,9 +4053,9 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4056,9 +4071,9 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4074,9 +4089,9 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4092,9 +4107,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4110,9 +4125,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4128,9 +4143,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4146,9 +4161,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4164,9 +4179,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4182,9 +4197,9 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4200,9 +4215,9 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4218,9 +4233,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4236,9 +4251,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4254,9 +4269,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4272,9 +4287,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4290,9 +4305,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4308,9 +4323,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4326,9 +4341,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4344,9 +4359,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4362,9 +4377,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4380,9 +4395,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4398,9 +4413,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4416,9 +4431,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4434,9 +4449,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4452,9 +4467,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4470,9 +4485,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4488,9 +4503,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4506,9 +4521,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4524,9 +4539,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4542,9 +4557,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4560,9 +4575,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4578,9 +4593,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4596,9 +4611,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4614,9 +4629,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4632,9 +4647,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4650,9 +4665,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4668,9 +4683,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4686,9 +4701,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4704,9 +4719,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4722,9 +4737,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4740,9 +4755,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4758,9 +4773,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4776,9 +4791,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4794,9 +4809,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4812,9 +4827,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4830,9 +4845,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4848,9 +4863,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4866,9 +4881,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4884,9 +4899,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4902,9 +4917,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4920,9 +4935,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4938,9 +4953,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4956,9 +4971,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4974,8 +4989,10 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="40">
+        <v>47331</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -4990,7 +5007,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5006,7 +5023,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5022,7 +5039,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5038,7 +5055,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5054,7 +5071,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5070,7 +5087,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5086,7 +5103,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5102,7 +5119,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5118,7 +5135,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5134,7 +5151,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5150,7 +5167,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5166,7 +5183,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5182,7 +5199,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5198,7 +5215,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5214,7 +5231,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5230,7 +5247,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5246,7 +5263,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5262,7 +5279,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5278,7 +5295,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5294,7 +5311,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5310,7 +5327,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5326,7 +5343,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5342,7 +5359,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5358,7 +5375,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5374,7 +5391,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5390,7 +5407,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5406,7 +5423,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5422,7 +5439,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5438,21 +5455,37 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="41"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="42"/>
-      <c r="D146" s="43"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="40"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
       <c r="E146" s="9"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H146" s="43"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
       <c r="I146" s="9"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="15"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="41"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="43"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5469,10 +5502,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5495,28 +5528,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -5529,7 +5562,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5558,19 +5591,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.15000000000000002</v>
+        <v>0.39</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -5582,17 +5615,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>55</v>
       </c>
@@ -5616,10 +5649,10 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>17.647000000000002</v>
+        <v>20.686</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -5647,7 +5680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5673,7 +5706,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5699,7 +5732,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5725,7 +5758,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5751,7 +5784,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5777,7 +5810,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5803,7 +5836,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5829,7 +5862,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5849,7 +5882,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5869,7 +5902,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5889,7 +5922,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5910,7 +5943,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5931,7 +5964,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5952,7 +5985,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5973,7 +6006,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5994,7 +6027,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6015,7 +6048,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6036,7 +6069,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6057,7 +6090,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6078,7 +6111,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6099,7 +6132,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6120,7 +6153,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6141,7 +6174,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6162,7 +6195,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6183,7 +6216,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6204,7 +6237,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6225,7 +6258,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6246,7 +6279,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6267,7 +6300,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6288,7 +6321,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6309,7 +6342,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6318,7 +6351,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6327,7 +6360,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6336,7 +6369,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6345,7 +6378,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6354,7 +6387,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6363,7 +6396,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6372,7 +6405,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6381,7 +6414,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6390,7 +6423,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6399,7 +6432,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6408,7 +6441,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6417,7 +6450,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6426,7 +6459,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6435,7 +6468,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6444,7 +6477,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6453,7 +6486,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6462,7 +6495,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6471,7 +6504,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6480,7 +6513,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6489,7 +6522,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6498,7 +6531,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6507,7 +6540,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6516,7 +6549,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6525,7 +6558,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6534,7 +6567,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6543,7 +6576,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6552,7 +6585,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6561,7 +6594,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6570,7 +6603,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/PERIDO, BEVERLY.xlsx
+++ b/REGULAR/CTO/PERIDO, BEVERLY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9E0489-D8BC-4951-9121-B52FD3B532A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9AF638-D078-4343-A937-3221FD764804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>UT(0-3-7)</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2367,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -2708,12 +2714,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K147"/>
+  <dimension ref="A2:K148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2878,7 +2884,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>2.1859999999999999</v>
+        <v>5.1859999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2888,7 +2894,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>18.5</v>
+        <v>23.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3716,13 +3722,15 @@
         <v>45170</v>
       </c>
       <c r="B46" s="20"/>
-      <c r="C46" s="13"/>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D46" s="39"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
@@ -3734,13 +3742,15 @@
         <v>45200</v>
       </c>
       <c r="B47" s="20"/>
-      <c r="C47" s="13"/>
+      <c r="C47" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D47" s="39"/>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G47" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
@@ -3752,13 +3762,15 @@
         <v>45231</v>
       </c>
       <c r="B48" s="20"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D48" s="39"/>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G48" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
@@ -3769,14 +3781,20 @@
       <c r="A49" s="40">
         <v>45261</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="39"/>
+      <c r="B49" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D49" s="39">
+        <v>2</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G49" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
@@ -3784,8 +3802,8 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="40">
-        <v>45292</v>
+      <c r="A50" s="48" t="s">
+        <v>74</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3803,9 +3821,11 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B51" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
@@ -3817,11 +3837,13 @@
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="50">
+        <v>45294</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3839,7 +3861,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3857,7 +3879,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3875,7 +3897,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>45444</v>
+        <v>45443</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3893,7 +3915,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>45474</v>
+        <v>45473</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3911,7 +3933,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>45505</v>
+        <v>45504</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3929,7 +3951,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>45536</v>
+        <v>45535</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3947,7 +3969,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>45566</v>
+        <v>45565</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3965,7 +3987,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3983,7 +4005,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4001,7 +4023,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4019,7 +4041,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>45689</v>
+        <v>45688</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4037,7 +4059,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>45717</v>
+        <v>45716</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4055,7 +4077,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4073,7 +4095,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4091,7 +4113,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>45809</v>
+        <v>45808</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4109,7 +4131,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>45839</v>
+        <v>45838</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4127,7 +4149,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>45870</v>
+        <v>45869</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4145,7 +4167,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4163,7 +4185,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>45931</v>
+        <v>45930</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4181,7 +4203,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>45962</v>
+        <v>45961</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4199,7 +4221,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>45992</v>
+        <v>45991</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4217,7 +4239,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>46023</v>
+        <v>46022</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4235,7 +4257,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>46054</v>
+        <v>46053</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4253,7 +4275,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>46082</v>
+        <v>46081</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4271,7 +4293,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>46113</v>
+        <v>46112</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4289,7 +4311,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>46143</v>
+        <v>46142</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4307,7 +4329,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>46174</v>
+        <v>46173</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4325,7 +4347,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>46204</v>
+        <v>46203</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4343,7 +4365,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>46235</v>
+        <v>46234</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4361,7 +4383,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>46266</v>
+        <v>46265</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4379,7 +4401,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>46296</v>
+        <v>46295</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4397,7 +4419,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>46327</v>
+        <v>46326</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4415,7 +4437,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>46357</v>
+        <v>46356</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4433,7 +4455,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>46388</v>
+        <v>46387</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4451,7 +4473,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>46419</v>
+        <v>46418</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4469,7 +4491,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>46447</v>
+        <v>46446</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4487,7 +4509,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>46478</v>
+        <v>46477</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4505,7 +4527,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>46508</v>
+        <v>46507</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4523,7 +4545,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>46539</v>
+        <v>46538</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4541,7 +4563,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>46569</v>
+        <v>46568</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4559,7 +4581,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>46600</v>
+        <v>46599</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4577,7 +4599,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>46631</v>
+        <v>46630</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4595,7 +4617,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>46661</v>
+        <v>46660</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4613,7 +4635,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>46692</v>
+        <v>46691</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4631,7 +4653,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>46722</v>
+        <v>46721</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4649,7 +4671,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>46753</v>
+        <v>46752</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4667,7 +4689,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>46784</v>
+        <v>46783</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4685,7 +4707,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>46813</v>
+        <v>46812</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4703,7 +4725,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>46844</v>
+        <v>46843</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4721,7 +4743,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>46874</v>
+        <v>46873</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4739,7 +4761,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>46905</v>
+        <v>46904</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4757,7 +4779,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>46935</v>
+        <v>46934</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4775,7 +4797,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>46966</v>
+        <v>46965</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4793,7 +4815,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>46997</v>
+        <v>46996</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4811,7 +4833,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>47027</v>
+        <v>47026</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4829,7 +4851,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>47058</v>
+        <v>47057</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4847,7 +4869,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>47088</v>
+        <v>47087</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4865,7 +4887,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>47119</v>
+        <v>47118</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4883,7 +4905,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>47150</v>
+        <v>47149</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4901,7 +4923,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>47178</v>
+        <v>47177</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4919,7 +4941,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>47209</v>
+        <v>47208</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4937,7 +4959,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>47239</v>
+        <v>47238</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4955,7 +4977,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>47270</v>
+        <v>47269</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4973,7 +4995,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>47300</v>
+        <v>47299</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4991,7 +5013,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>47331</v>
+        <v>47330</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5008,7 +5030,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>47361</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -5472,20 +5496,36 @@
       <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147" s="41"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="43"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H147" s="43"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
       <c r="I147" s="9"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="15"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="41"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="43"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5652,7 +5692,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>20.686</v>
+        <v>28.686</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/PERIDO, BEVERLY.xlsx
+++ b/REGULAR/CTO/PERIDO, BEVERLY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9AF638-D078-4343-A937-3221FD764804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -260,12 +259,36 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-4-45)</t>
+  </si>
+  <si>
+    <t>UT(0-1-32)</t>
+  </si>
+  <si>
+    <t>UT(0-6-33)</t>
+  </si>
+  <si>
+    <t>UT(1-0-42)</t>
+  </si>
+  <si>
+    <t>UT(0-6-26)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>7/5,7,25/2023</t>
+  </si>
+  <si>
+    <t>UT(0-6-45)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -963,7 +986,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1006,7 +1029,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1070,7 +1093,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1130,7 +1153,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,7 +1219,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1282,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1380,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,7 +1439,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1504,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1524,7 +1547,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1622,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1808,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1874,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1909,7 +1932,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1998,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2054,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2129,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2172,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2238,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2294,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2373,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2367,25 +2390,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K152" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2692,7 +2715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2702,7 +2725,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2710,34 +2733,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K148"/>
+  <dimension ref="A2:K152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A40" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2758,7 +2781,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2780,7 +2803,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2802,7 +2825,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2810,7 +2833,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2823,7 +2846,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -2840,7 +2863,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2875,7 +2898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2884,7 +2907,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>5.1859999999999999</v>
+        <v>-3.1539999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2899,7 +2922,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2921,7 +2944,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44621</v>
       </c>
@@ -2947,7 +2970,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>70</v>
@@ -2967,7 +2990,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="50"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44652</v>
       </c>
@@ -2991,7 +3014,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>44682</v>
       </c>
@@ -3015,7 +3038,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>58</v>
@@ -3037,7 +3060,7 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>68</v>
@@ -3057,7 +3080,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="50"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>44713</v>
       </c>
@@ -3083,7 +3106,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>66</v>
@@ -3103,7 +3126,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>44743</v>
       </c>
@@ -3129,7 +3152,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="15" t="s">
         <v>48</v>
@@ -3151,7 +3174,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>65</v>
@@ -3171,7 +3194,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="50"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44774</v>
       </c>
@@ -3197,7 +3220,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>58</v>
@@ -3219,7 +3242,7 @@
         <v>44785</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>72</v>
@@ -3239,7 +3262,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="50"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44805</v>
       </c>
@@ -3265,7 +3288,7 @@
         <v>44827</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>58</v>
@@ -3287,7 +3310,7 @@
         <v>44813</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>64</v>
@@ -3307,7 +3330,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="50"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44835</v>
       </c>
@@ -3333,7 +3356,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>63</v>
@@ -3353,7 +3376,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44866</v>
       </c>
@@ -3377,7 +3400,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>58</v>
@@ -3399,7 +3422,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>60</v>
@@ -3419,7 +3442,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="50"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44896</v>
       </c>
@@ -3445,7 +3468,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>58</v>
@@ -3467,7 +3490,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>59</v>
@@ -3487,7 +3510,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>51</v>
       </c>
@@ -3505,7 +3528,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="50"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44927</v>
       </c>
@@ -3531,7 +3554,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44958</v>
       </c>
@@ -3555,7 +3578,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44986</v>
       </c>
@@ -3579,7 +3602,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>50</v>
@@ -3599,7 +3622,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>45017</v>
       </c>
@@ -3625,7 +3648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>45047</v>
       </c>
@@ -3645,7 +3668,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>45078</v>
       </c>
@@ -3671,15 +3694,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>45108</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
-      <c r="D44" s="39"/>
+      <c r="D44" s="39">
+        <v>3</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
@@ -3689,39 +3716,37 @@
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="40">
-        <v>45139</v>
-      </c>
+      <c r="K44" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D45" s="39"/>
+        <v>82</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="39">
+        <v>0.84399999999999997</v>
+      </c>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H45" s="39">
-        <v>1</v>
-      </c>
+      <c r="G45" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="50">
-        <v>45140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B46" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
@@ -3732,63 +3757,69 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H46" s="39"/>
+      <c r="H46" s="39">
+        <v>1</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D47" s="39"/>
+      <c r="K46" s="50">
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="39">
+        <v>1</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G47" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D48" s="39"/>
+      <c r="K47" s="50">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="39">
+        <v>0.80400000000000005</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G48" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K48" s="50"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45261</v>
+        <v>45170</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
       <c r="D49" s="39">
-        <v>2</v>
+        <v>1.087</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
@@ -3801,71 +3832,87 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="39"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D50" s="39">
+        <v>0.81899999999999995</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45322</v>
+        <v>45231</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D51" s="39">
+        <v>0.192</v>
+      </c>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="50">
-        <v>45294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="39">
+        <v>2</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B53" s="20"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="40"/>
+      <c r="B53" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="39"/>
+      <c r="D53" s="39">
+        <v>0.59399999999999997</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
@@ -3877,9 +3924,9 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="40">
-        <v>45412</v>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
+        <v>74</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3895,11 +3942,13 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45443</v>
-      </c>
-      <c r="B55" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
@@ -3911,11 +3960,13 @@
       <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K55" s="50">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45473</v>
+        <v>45351</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3931,9 +3982,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45504</v>
+        <v>45382</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3949,9 +4000,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45535</v>
+        <v>45412</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3967,9 +4018,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45565</v>
+        <v>45443</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3985,9 +4036,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45596</v>
+        <v>45473</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4003,9 +4054,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45626</v>
+        <v>45504</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4021,9 +4072,9 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45657</v>
+        <v>45535</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4039,9 +4090,9 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45688</v>
+        <v>45565</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4057,9 +4108,9 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45716</v>
+        <v>45596</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4075,9 +4126,9 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45747</v>
+        <v>45626</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4093,9 +4144,9 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45777</v>
+        <v>45657</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4111,9 +4162,9 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45808</v>
+        <v>45688</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4129,9 +4180,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45838</v>
+        <v>45716</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4147,9 +4198,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45869</v>
+        <v>45747</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4165,9 +4216,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45900</v>
+        <v>45777</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4183,9 +4234,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45930</v>
+        <v>45808</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4201,9 +4252,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45961</v>
+        <v>45838</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4219,9 +4270,9 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45991</v>
+        <v>45869</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4237,9 +4288,9 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>46022</v>
+        <v>45900</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4255,9 +4306,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>46053</v>
+        <v>45930</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4273,9 +4324,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>46081</v>
+        <v>45961</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4291,9 +4342,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>46112</v>
+        <v>45991</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4309,9 +4360,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46142</v>
+        <v>46022</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4327,9 +4378,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46173</v>
+        <v>46053</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4345,9 +4396,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46203</v>
+        <v>46081</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4363,9 +4414,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46234</v>
+        <v>46112</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4381,9 +4432,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46265</v>
+        <v>46142</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4399,9 +4450,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46295</v>
+        <v>46173</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4417,9 +4468,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46326</v>
+        <v>46203</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4435,9 +4486,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46356</v>
+        <v>46234</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4453,9 +4504,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46387</v>
+        <v>46265</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4471,9 +4522,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46418</v>
+        <v>46295</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4489,9 +4540,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46446</v>
+        <v>46326</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4507,9 +4558,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46477</v>
+        <v>46356</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4525,9 +4576,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46507</v>
+        <v>46387</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4543,9 +4594,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46538</v>
+        <v>46418</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4561,9 +4612,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46568</v>
+        <v>46446</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4579,9 +4630,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46599</v>
+        <v>46477</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4597,9 +4648,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>46630</v>
+        <v>46507</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4615,9 +4666,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>46660</v>
+        <v>46538</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4633,9 +4684,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>46691</v>
+        <v>46568</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4651,9 +4702,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>46721</v>
+        <v>46599</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4669,9 +4720,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>46752</v>
+        <v>46630</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4687,9 +4738,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>46783</v>
+        <v>46660</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4705,9 +4756,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>46812</v>
+        <v>46691</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4723,9 +4774,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>46843</v>
+        <v>46721</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4741,9 +4792,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>46873</v>
+        <v>46752</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4759,9 +4810,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>46904</v>
+        <v>46783</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4777,9 +4828,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>46934</v>
+        <v>46812</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4795,9 +4846,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>46965</v>
+        <v>46843</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4813,9 +4864,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>46996</v>
+        <v>46873</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4831,9 +4882,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>47026</v>
+        <v>46904</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4849,9 +4900,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>47057</v>
+        <v>46934</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4867,9 +4918,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>47087</v>
+        <v>46965</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4885,9 +4936,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>47118</v>
+        <v>46996</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4903,9 +4954,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>47149</v>
+        <v>47026</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4921,9 +4972,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>47177</v>
+        <v>47057</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4939,9 +4990,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>47208</v>
+        <v>47087</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4957,9 +5008,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>47238</v>
+        <v>47118</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4975,9 +5026,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>47269</v>
+        <v>47149</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4993,9 +5044,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>47299</v>
+        <v>47177</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5011,9 +5062,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>47330</v>
+        <v>47208</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5029,9 +5080,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>47361</v>
+        <v>47238</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5047,8 +5098,10 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="40">
+        <v>47269</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -5063,8 +5116,10 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="40">
+        <v>47299</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5079,8 +5134,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="40">
+        <v>47330</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5095,8 +5152,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="40">
+        <v>47361</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -5111,7 +5170,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5127,7 +5186,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5143,7 +5202,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5159,7 +5218,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5175,7 +5234,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5191,7 +5250,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5207,7 +5266,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5223,7 +5282,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5239,7 +5298,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5255,7 +5314,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5271,7 +5330,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5287,7 +5346,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5303,7 +5362,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5319,7 +5378,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5335,7 +5394,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5351,7 +5410,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5367,7 +5426,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5383,7 +5442,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5399,7 +5458,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5415,7 +5474,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5431,7 +5490,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5447,7 +5506,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5463,7 +5522,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5479,7 +5538,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5495,7 +5554,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5511,21 +5570,85 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="41"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="42"/>
-      <c r="D148" s="43"/>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="40"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H148" s="43"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="39"/>
       <c r="I148" s="9"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="15"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="40"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="39"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="40"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="39"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="40"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="39"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="41"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="43"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5542,10 +5665,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5568,28 +5691,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -5602,7 +5725,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5631,19 +5754,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="11">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.39</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -5655,17 +5778,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>55</v>
       </c>
@@ -5689,10 +5812,10 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>28.686</v>
+        <v>20.346</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -5720,7 +5843,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5746,7 +5869,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5772,7 +5895,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5798,7 +5921,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5824,7 +5947,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5850,7 +5973,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5876,7 +5999,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5902,7 +6025,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5922,7 +6045,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5942,7 +6065,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5962,7 +6085,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5983,7 +6106,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6004,7 +6127,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6025,7 +6148,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6046,7 +6169,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6067,7 +6190,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6088,7 +6211,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6109,7 +6232,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6130,7 +6253,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6151,7 +6274,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6172,7 +6295,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6193,7 +6316,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6214,7 +6337,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6235,7 +6358,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6256,7 +6379,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6277,7 +6400,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6298,7 +6421,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6319,7 +6442,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6340,7 +6463,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6361,7 +6484,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6382,7 +6505,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6391,7 +6514,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6400,7 +6523,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6409,7 +6532,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6418,7 +6541,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6427,7 +6550,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6436,7 +6559,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6445,7 +6568,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6454,7 +6577,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6463,7 +6586,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6472,7 +6595,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6481,7 +6604,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6490,7 +6613,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6499,7 +6622,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6508,7 +6631,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6517,7 +6640,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6526,7 +6649,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6535,7 +6658,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6544,7 +6667,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6553,7 +6676,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6562,7 +6685,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6571,7 +6694,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6580,7 +6703,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6589,7 +6712,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6598,7 +6721,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6607,7 +6730,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6616,7 +6739,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6625,7 +6748,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6634,7 +6757,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6643,7 +6766,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/PERIDO, BEVERLY.xlsx
+++ b/REGULAR/CTO/PERIDO, BEVERLY.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -283,6 +283,33 @@
   </si>
   <si>
     <t>UT(0-6-45)</t>
+  </si>
+  <si>
+    <t>6/1,8,30/2023</t>
+  </si>
+  <si>
+    <t>UT(1-1-12)</t>
+  </si>
+  <si>
+    <t>5/5,15/2023</t>
+  </si>
+  <si>
+    <t>UT(0-2-37)</t>
+  </si>
+  <si>
+    <t>UT(0-1-51)</t>
+  </si>
+  <si>
+    <t>3/14/2023 (22)</t>
+  </si>
+  <si>
+    <t>UT(2-3-38)</t>
+  </si>
+  <si>
+    <t>UT(0-1-8)</t>
+  </si>
+  <si>
+    <t>UT(0-1-43)</t>
   </si>
 </sst>
 </file>
@@ -520,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,6 +693,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2390,7 +2420,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K152" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K161" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2737,12 +2767,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K152"/>
+  <dimension ref="A2:K161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A31" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,66 +2794,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="61">
         <v>44621</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -2849,18 +2879,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2907,7 +2937,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-3.1539999999999999</v>
+        <v>-14.673000000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3555,125 +3585,119 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D38" s="39"/>
+        <v>58</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="39">
+        <v>1</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G38" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
       <c r="K38" s="50">
-        <v>44967</v>
+        <v>44939</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D39" s="39"/>
+        <v>91</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="39">
+        <v>0.215</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G39" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="50">
-        <v>45019</v>
-      </c>
+      <c r="K39" s="50"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="40">
+        <v>44958</v>
+      </c>
       <c r="B40" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="13"/>
+      <c r="C40" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D40" s="39"/>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G40" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
       <c r="K40" s="50">
-        <v>44999</v>
+        <v>44967</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A41" s="40"/>
+      <c r="B41" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="13"/>
       <c r="D41" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G41" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20" t="s">
-        <v>54</v>
+      <c r="K41" s="50">
+        <v>44974</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D42" s="39"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="39">
+        <v>0.14200000000000002</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G42" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="50"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45078</v>
+        <v>44986</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C43" s="13">
         <v>1.25</v>
@@ -3685,49 +3709,41 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H43" s="39">
-        <v>2</v>
-      </c>
+      <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20" t="s">
-        <v>57</v>
+      <c r="K43" s="50">
+        <v>45019</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D44" s="39">
-        <v>3</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G44" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20" t="s">
-        <v>81</v>
+      <c r="K44" s="50" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="39">
-        <v>0.84399999999999997</v>
+        <v>2.4540000000000002</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
@@ -3738,42 +3754,42 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="50"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>49</v>
+        <v>45017</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
-      <c r="D46" s="39"/>
+      <c r="D46" s="39">
+        <v>2</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H46" s="39">
-        <v>1</v>
-      </c>
+      <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="50">
-        <v>45140</v>
+      <c r="K46" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
-      <c r="B47" s="20" t="s">
-        <v>58</v>
+      <c r="B47" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="39">
-        <v>1</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
@@ -3784,48 +3800,48 @@
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="50">
-        <v>45167</v>
-      </c>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="40">
+        <v>45047</v>
+      </c>
       <c r="B48" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D48" s="39">
-        <v>0.80400000000000005</v>
+        <v>2</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G48" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="50"/>
+      <c r="K48" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="13">
-        <v>1.25</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C49" s="13"/>
       <c r="D49" s="39">
-        <v>1.087</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G49" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
@@ -3834,70 +3850,66 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
       </c>
-      <c r="D50" s="39">
-        <v>0.81899999999999995</v>
-      </c>
+      <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H50" s="39"/>
+      <c r="H50" s="39">
+        <v>2</v>
+      </c>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20"/>
+      <c r="K50" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="13">
-        <v>1.25</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C51" s="13"/>
       <c r="D51" s="39">
-        <v>0.192</v>
+        <v>3</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G51" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="13">
-        <v>1.25</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C52" s="13"/>
       <c r="D52" s="39">
-        <v>2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G52" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
@@ -3905,32 +3917,40 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
+      <c r="A53" s="40">
+        <v>45108</v>
+      </c>
       <c r="B53" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D53" s="39">
-        <v>0.59399999999999997</v>
+        <v>3</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="20"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="39"/>
+      <c r="D54" s="39">
+        <v>0.84399999999999997</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13" t="str">
@@ -3944,33 +3964,39 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45322</v>
+        <v>45139</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="C55" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H55" s="39"/>
+      <c r="G55" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H55" s="39">
+        <v>1</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
       <c r="K55" s="50">
-        <v>45294</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B56" s="20"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="39"/>
+      <c r="D56" s="39">
+        <v>1</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13" t="str">
@@ -3980,15 +4006,19 @@
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
+      <c r="K56" s="50">
+        <v>45167</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B57" s="20"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C57" s="13"/>
-      <c r="D57" s="39"/>
+      <c r="D57" s="39">
+        <v>0.80400000000000005</v>
+      </c>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13" t="str">
@@ -3998,20 +4028,26 @@
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="K57" s="50"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45412</v>
-      </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="39"/>
+        <v>45170</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D58" s="39">
+        <v>1.087</v>
+      </c>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G58" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
@@ -4020,16 +4056,22 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45443</v>
-      </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D59" s="39">
+        <v>0.81899999999999995</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
@@ -4038,16 +4080,22 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45473</v>
-      </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D60" s="39">
+        <v>0.192</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
@@ -4056,16 +4104,22 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45504</v>
-      </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D61" s="39">
+        <v>2</v>
+      </c>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
@@ -4073,12 +4127,14 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40">
-        <v>45535</v>
-      </c>
-      <c r="B62" s="20"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C62" s="13"/>
-      <c r="D62" s="39"/>
+      <c r="D62" s="39">
+        <v>0.59399999999999997</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
@@ -4091,8 +4147,8 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40">
-        <v>45565</v>
+      <c r="A63" s="48" t="s">
+        <v>74</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4110,9 +4166,11 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45596</v>
-      </c>
-      <c r="B64" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
@@ -4124,11 +4182,13 @@
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="50">
+        <v>45294</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45626</v>
+        <v>45351</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4146,7 +4206,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45657</v>
+        <v>45382</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4164,7 +4224,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45688</v>
+        <v>45412</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4182,7 +4242,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45716</v>
+        <v>45443</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4200,7 +4260,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45747</v>
+        <v>45473</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4218,7 +4278,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45777</v>
+        <v>45504</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4236,7 +4296,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45808</v>
+        <v>45535</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4254,7 +4314,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45838</v>
+        <v>45565</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4272,7 +4332,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45869</v>
+        <v>45596</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4290,7 +4350,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45900</v>
+        <v>45626</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4308,7 +4368,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45930</v>
+        <v>45657</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4326,7 +4386,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45961</v>
+        <v>45688</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4344,7 +4404,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45991</v>
+        <v>45716</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4362,7 +4422,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46022</v>
+        <v>45747</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4380,7 +4440,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46053</v>
+        <v>45777</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4398,7 +4458,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46081</v>
+        <v>45808</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4416,7 +4476,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46112</v>
+        <v>45838</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4434,7 +4494,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46142</v>
+        <v>45869</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4452,7 +4512,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46173</v>
+        <v>45900</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4470,7 +4530,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46203</v>
+        <v>45930</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4488,7 +4548,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46234</v>
+        <v>45961</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4506,7 +4566,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46265</v>
+        <v>45991</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4524,7 +4584,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46295</v>
+        <v>46022</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4542,7 +4602,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46326</v>
+        <v>46053</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4560,7 +4620,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46356</v>
+        <v>46081</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4578,7 +4638,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46387</v>
+        <v>46112</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4596,7 +4656,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46418</v>
+        <v>46142</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4614,7 +4674,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46446</v>
+        <v>46173</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4632,7 +4692,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46477</v>
+        <v>46203</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4650,7 +4710,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>46507</v>
+        <v>46234</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4668,7 +4728,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>46538</v>
+        <v>46265</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4686,7 +4746,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>46568</v>
+        <v>46295</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4704,7 +4764,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>46599</v>
+        <v>46326</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4722,7 +4782,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>46630</v>
+        <v>46356</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4740,7 +4800,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>46660</v>
+        <v>46387</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4758,7 +4818,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>46691</v>
+        <v>46418</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4776,7 +4836,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>46721</v>
+        <v>46446</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4794,7 +4854,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>46752</v>
+        <v>46477</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4812,7 +4872,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>46783</v>
+        <v>46507</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4830,7 +4890,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>46812</v>
+        <v>46538</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4848,7 +4908,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>46843</v>
+        <v>46568</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4866,7 +4926,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>46873</v>
+        <v>46599</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4884,7 +4944,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>46904</v>
+        <v>46630</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4902,7 +4962,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>46934</v>
+        <v>46660</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4920,7 +4980,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>46965</v>
+        <v>46691</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4938,7 +4998,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>46996</v>
+        <v>46721</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4956,7 +5016,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>47026</v>
+        <v>46752</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4974,7 +5034,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>47057</v>
+        <v>46783</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4992,7 +5052,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>47087</v>
+        <v>46812</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5010,7 +5070,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>47118</v>
+        <v>46843</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5028,7 +5088,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>47149</v>
+        <v>46873</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5046,7 +5106,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>47177</v>
+        <v>46904</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5064,7 +5124,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>47208</v>
+        <v>46934</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5082,7 +5142,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>47238</v>
+        <v>46965</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5100,7 +5160,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>47269</v>
+        <v>46996</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5118,7 +5178,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>47299</v>
+        <v>47026</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5136,7 +5196,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>47330</v>
+        <v>47057</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5154,7 +5214,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>47361</v>
+        <v>47087</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5171,7 +5231,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>47118</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -5187,7 +5249,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>47149</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -5203,7 +5267,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>47177</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -5219,7 +5285,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>47208</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -5235,7 +5303,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>47238</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -5251,7 +5321,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>47269</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -5267,7 +5339,9 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <v>47299</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -5283,7 +5357,9 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
+      <c r="A130" s="40">
+        <v>47330</v>
+      </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -5299,7 +5375,9 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
+      <c r="A131" s="40">
+        <v>47361</v>
+      </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -5635,20 +5713,164 @@
       <c r="K151" s="20"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="41"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="42"/>
-      <c r="D152" s="43"/>
+      <c r="A152" s="40"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="39"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H152" s="43"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="39"/>
       <c r="I152" s="9"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="15"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="40"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="39"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="20"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="40"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H154" s="39"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="40"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H155" s="39"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="20"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="40"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="39"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H156" s="39"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="20"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="40"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H157" s="39"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="40"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H158" s="39"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="40"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H159" s="39"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="20"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="40"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H160" s="39"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="20"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="41"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="42"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H161" s="43"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5713,17 +5935,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -5759,14 +5981,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.84399999999999997</v>
+        <v>0.215</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -5805,17 +6027,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>20.346</v>
+        <v>8.8269999999999911</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/PERIDO, BEVERLY.xlsx
+++ b/REGULAR/CTO/PERIDO, BEVERLY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043EE690-2892-4570-B157-4B3321BCDF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -210,21 +211,12 @@
     <t>6/23,26/2023</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-2-47)</t>
   </si>
   <si>
     <t>UT(0-1-38)</t>
   </si>
   <si>
-    <t>A(2-0-0)</t>
-  </si>
-  <si>
-    <t>10/5,14/2022</t>
-  </si>
-  <si>
     <t>UT(0-2-27)</t>
   </si>
   <si>
@@ -249,9 +241,6 @@
     <t>UT(0-1-40)</t>
   </si>
   <si>
-    <t>6/8,27/2022</t>
-  </si>
-  <si>
     <t>UT(0-3-7)</t>
   </si>
   <si>
@@ -276,22 +265,13 @@
     <t>UT(0-6-26)</t>
   </si>
   <si>
-    <t>A(3-0-0)</t>
-  </si>
-  <si>
     <t>7/5,7,25/2023</t>
   </si>
   <si>
     <t>UT(0-6-45)</t>
   </si>
   <si>
-    <t>6/1,8,30/2023</t>
-  </si>
-  <si>
     <t>UT(1-1-12)</t>
-  </si>
-  <si>
-    <t>5/5,15/2023</t>
   </si>
   <si>
     <t>UT(0-2-37)</t>
@@ -315,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1016,7 +996,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1059,7 +1039,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1103,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1183,7 +1163,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,7 +1229,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1312,7 +1292,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1390,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,7 +1449,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,7 +1514,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1557,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1632,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1838,7 +1818,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1884,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +1942,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2008,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2064,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2139,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2182,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2248,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2304,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2403,7 +2383,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2420,25 +2400,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K161" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2745,7 +2725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2755,7 +2735,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2763,34 +2743,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K161"/>
+  <dimension ref="A2:K148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A31" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +2791,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2833,7 +2813,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2855,7 +2835,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2863,7 +2843,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2876,7 +2856,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2893,7 +2873,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2928,7 +2908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2937,7 +2917,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-14.673000000000009</v>
+        <v>7.5770000000000017</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2947,12 +2927,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>23.5</v>
+        <v>24.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2974,18 +2954,18 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44621</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C11" s="13">
         <v>1.25</v>
       </c>
       <c r="D11" s="39">
-        <v>1</v>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
@@ -2996,43 +2976,43 @@
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="50">
-        <v>44641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="K11" s="50"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="40">
+        <v>44652</v>
+      </c>
       <c r="B12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D12" s="39">
-        <v>0.20800000000000002</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G12" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="50"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C13" s="13">
         <v>1.25</v>
       </c>
-      <c r="D13" s="39">
-        <v>0.19600000000000001</v>
-      </c>
+      <c r="D13" s="39"/>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
@@ -3042,108 +3022,110 @@
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
-        <v>44682</v>
-      </c>
+      <c r="K13" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D14" s="39"/>
+        <v>65</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="39">
+        <v>0.15000000000000002</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G14" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="K14" s="50"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="40">
+        <v>44713</v>
+      </c>
       <c r="B15" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D15" s="39">
-        <v>1</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G15" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="50">
-        <v>44691</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="40">
+        <v>44743</v>
+      </c>
       <c r="B16" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="39">
-        <v>0.15000000000000002</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="39"/>
       <c r="E16" s="9"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H16" s="39"/>
+      <c r="G16" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="39">
+        <v>1</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="50"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D17" s="39">
-        <v>2</v>
+      <c r="K16" s="50">
+        <v>44762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="43">
+        <v>1</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H17" s="39"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="43"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="12"/>
+      <c r="K17" s="49">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39">
-        <v>0.60199999999999998</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
@@ -3154,133 +3136,129 @@
       <c r="H18" s="39"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="50"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>49</v>
+        <v>44774</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C19" s="13">
         <v>1.25</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="43">
+        <v>1</v>
+      </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="13">
+      <c r="F19" s="15"/>
+      <c r="G19" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="43"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="49">
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="39">
+        <v>0.39</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="50"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D21" s="39">
         <v>1</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="50">
-        <v>44762</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="43">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="49">
-        <v>44749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="39">
-        <v>0.48299999999999998</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="50"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="K21" s="50">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="39">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="50"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="13">
         <v>1.25</v>
       </c>
-      <c r="D22" s="43">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="49">
-        <v>44799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="13"/>
       <c r="D23" s="39">
-        <v>1</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="50">
-        <v>44785</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
-      <c r="B24" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="B24" s="20"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="39">
-        <v>0.39</v>
-      </c>
+      <c r="D24" s="39"/>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13" t="str">
@@ -3290,21 +3268,19 @@
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="50"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <v>44805</v>
+        <v>44866</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
       </c>
-      <c r="D25" s="39">
-        <v>1</v>
-      </c>
+      <c r="D25" s="39"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13">
@@ -3315,17 +3291,17 @@
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="50">
-        <v>44827</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39">
-        <v>1</v>
+        <v>0.20400000000000001</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
@@ -3336,65 +3312,61 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="50">
-        <v>44813</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="K26" s="50"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="40">
+        <v>44896</v>
+      </c>
       <c r="B27" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D27" s="39">
-        <v>0.42699999999999999</v>
+        <v>1</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40">
-        <v>44835</v>
-      </c>
+      <c r="K27" s="50">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1.25</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C28" s="13"/>
       <c r="D28" s="39">
-        <v>2</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G28" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="20" t="s">
-        <v>63</v>
-      </c>
+      <c r="K28" s="50"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="20"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="39">
-        <v>0.30599999999999999</v>
-      </c>
+      <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
       <c r="G29" s="13" t="str">
@@ -3404,19 +3376,21 @@
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="50"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <v>44866</v>
+        <v>44927</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
       </c>
-      <c r="D30" s="39"/>
+      <c r="D30" s="39">
+        <v>1</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
@@ -3427,17 +3401,17 @@
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="50">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39">
-        <v>1</v>
+        <v>0.215</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
@@ -3448,87 +3422,83 @@
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="50">
-        <v>44890</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="K31" s="50"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="40">
+        <v>44958</v>
+      </c>
       <c r="B32" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="39">
-        <v>0.20400000000000001</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D32" s="39"/>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="50"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40">
-        <v>44896</v>
-      </c>
+      <c r="K32" s="50">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="13">
-        <v>1.25</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C33" s="13"/>
       <c r="D33" s="39">
-        <v>1</v>
+        <v>0.14200000000000002</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G33" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="50">
-        <v>44904</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="K33" s="50"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="40">
+        <v>44986</v>
+      </c>
       <c r="B34" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="39">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D34" s="39"/>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
       <c r="K34" s="50">
-        <v>44922</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="39">
-        <v>0.34799999999999998</v>
-      </c>
+      <c r="D35" s="39"/>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13" t="str">
@@ -3538,15 +3508,19 @@
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="50"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="20"/>
+      <c r="K35" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="39"/>
+      <c r="D36" s="39">
+        <v>2.4540000000000002</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13" t="str">
@@ -3558,18 +3532,18 @@
       <c r="J36" s="11"/>
       <c r="K36" s="50"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>52</v>
+        <v>45017</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C37" s="13">
         <v>1.25</v>
       </c>
       <c r="D37" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
@@ -3580,18 +3554,18 @@
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="50">
-        <v>44950</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
-      <c r="B38" s="20" t="s">
-        <v>58</v>
+      <c r="B38" s="51" t="s">
+        <v>80</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39">
-        <v>1</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
@@ -3602,36 +3576,38 @@
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="50">
-        <v>44939</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="40">
+        <v>45047</v>
+      </c>
       <c r="B39" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="C39" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D39" s="39">
-        <v>0.215</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G39" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="50"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
@@ -3643,21 +3619,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H40" s="39"/>
+      <c r="H40" s="39">
+        <v>2</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="50">
-        <v>44967</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="39">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
@@ -3668,36 +3646,40 @@
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="50">
-        <v>44974</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="40">
+        <v>45108</v>
+      </c>
       <c r="B42" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="C42" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D42" s="39">
-        <v>0.14200000000000002</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G42" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="50"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>44986</v>
+        <v>45139</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="13">
         <v>1.25</v>
@@ -3709,20 +3691,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H43" s="39"/>
+      <c r="H43" s="39">
+        <v>1</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
       <c r="K43" s="50">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C44" s="13"/>
-      <c r="D44" s="39"/>
+      <c r="D44" s="39">
+        <v>0.80400000000000005</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13" t="str">
@@ -3732,42 +3718,44 @@
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="K44" s="50"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="40">
+        <v>45170</v>
+      </c>
       <c r="B45" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="C45" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D45" s="39">
-        <v>2.4540000000000002</v>
+        <v>1.087</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G45" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="50"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>53</v>
+        <v>45200</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
       <c r="D46" s="39">
-        <v>2</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
@@ -3778,36 +3766,38 @@
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="13"/>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D47" s="39">
-        <v>0.23100000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G47" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>45047</v>
+        <v>45261</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -3824,18 +3814,16 @@
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="39">
-        <v>0.32700000000000001</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
@@ -3848,63 +3836,55 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="13">
-        <v>1.25</v>
-      </c>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H50" s="39">
-        <v>2</v>
-      </c>
+      <c r="G50" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="40">
+        <v>45322</v>
+      </c>
       <c r="B51" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="39">
-        <v>3</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="20" t="s">
-        <v>84</v>
-      </c>
+      <c r="K51" s="50">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="40">
+        <v>45351</v>
+      </c>
+      <c r="B52" s="20"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="39">
-        <v>1.1499999999999999</v>
-      </c>
+      <c r="D52" s="39"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13" t="str">
@@ -3916,41 +3896,31 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D53" s="39">
-        <v>3</v>
-      </c>
+        <v>45382</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="K53" s="20"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="40">
+        <v>45412</v>
+      </c>
+      <c r="B54" s="20"/>
       <c r="C54" s="13"/>
-      <c r="D54" s="39">
-        <v>0.84399999999999997</v>
-      </c>
+      <c r="D54" s="39"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13" t="str">
@@ -3962,41 +3932,31 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45443</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H55" s="39">
-        <v>1</v>
-      </c>
+      <c r="G55" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="50">
-        <v>45140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="40">
+        <v>45473</v>
+      </c>
+      <c r="B56" s="20"/>
       <c r="C56" s="13"/>
-      <c r="D56" s="39">
-        <v>1</v>
-      </c>
+      <c r="D56" s="39"/>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13" t="str">
@@ -4006,19 +3966,15 @@
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="50">
-        <v>45167</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B57" s="20"/>
       <c r="C57" s="13"/>
-      <c r="D57" s="39">
-        <v>0.80400000000000005</v>
-      </c>
+      <c r="D57" s="39"/>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13" t="str">
@@ -4028,113 +3984,87 @@
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="50"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="20"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D58" s="39">
-        <v>1.087</v>
-      </c>
+        <v>45535</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G58" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D59" s="39">
-        <v>0.81899999999999995</v>
-      </c>
+        <v>45565</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D60" s="39">
-        <v>0.192</v>
-      </c>
+        <v>45596</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G60" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D61" s="39">
-        <v>2</v>
-      </c>
+        <v>45626</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G61" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="20" t="s">
-        <v>75</v>
-      </c>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="40">
+        <v>45657</v>
+      </c>
+      <c r="B62" s="20"/>
       <c r="C62" s="13"/>
-      <c r="D62" s="39">
-        <v>0.59399999999999997</v>
-      </c>
+      <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
@@ -4146,9 +4076,9 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="48" t="s">
-        <v>74</v>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="40">
+        <v>45688</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4164,13 +4094,11 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>45716</v>
+      </c>
+      <c r="B64" s="20"/>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
@@ -4182,13 +4110,11 @@
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="50">
-        <v>45294</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="20"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>45351</v>
+        <v>45747</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4204,9 +4130,9 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>45382</v>
+        <v>45777</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4222,9 +4148,9 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>45412</v>
+        <v>45808</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4240,9 +4166,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>45443</v>
+        <v>45838</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4258,9 +4184,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>45473</v>
+        <v>45869</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4276,9 +4202,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>45504</v>
+        <v>45900</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4294,9 +4220,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>45535</v>
+        <v>45930</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4312,9 +4238,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>45565</v>
+        <v>45961</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4330,9 +4256,9 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>45596</v>
+        <v>45991</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4348,9 +4274,9 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>45626</v>
+        <v>46022</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4366,9 +4292,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>45657</v>
+        <v>46053</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4384,9 +4310,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>45688</v>
+        <v>46081</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4402,9 +4328,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>45716</v>
+        <v>46112</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4420,9 +4346,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>45747</v>
+        <v>46142</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4438,9 +4364,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>45777</v>
+        <v>46173</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4456,9 +4382,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>45808</v>
+        <v>46203</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4474,9 +4400,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>45838</v>
+        <v>46234</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4492,9 +4418,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>45869</v>
+        <v>46265</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4510,9 +4436,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>45900</v>
+        <v>46295</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4528,9 +4454,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>45930</v>
+        <v>46326</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4546,9 +4472,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>45961</v>
+        <v>46356</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4564,9 +4490,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>45991</v>
+        <v>46387</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4582,9 +4508,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>46022</v>
+        <v>46418</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4600,9 +4526,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>46053</v>
+        <v>46446</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4618,9 +4544,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>46081</v>
+        <v>46477</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4636,9 +4562,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>46112</v>
+        <v>46507</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4654,9 +4580,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>46142</v>
+        <v>46538</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4672,9 +4598,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>46173</v>
+        <v>46568</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4690,9 +4616,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>46203</v>
+        <v>46599</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4708,9 +4634,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>46234</v>
+        <v>46630</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4726,9 +4652,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>46265</v>
+        <v>46660</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4744,9 +4670,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>46295</v>
+        <v>46691</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4762,9 +4688,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>46326</v>
+        <v>46721</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4780,9 +4706,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>46356</v>
+        <v>46752</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4798,9 +4724,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>46387</v>
+        <v>46783</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4816,9 +4742,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>46418</v>
+        <v>46812</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4834,9 +4760,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>46446</v>
+        <v>46843</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4852,9 +4778,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>46477</v>
+        <v>46873</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4870,9 +4796,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>46507</v>
+        <v>46904</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4888,9 +4814,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>46538</v>
+        <v>46934</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4906,9 +4832,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>46568</v>
+        <v>46965</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4924,9 +4850,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>46599</v>
+        <v>46996</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4942,9 +4868,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>46630</v>
+        <v>47026</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4960,9 +4886,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>46660</v>
+        <v>47057</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4978,9 +4904,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>46691</v>
+        <v>47087</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4996,9 +4922,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>46721</v>
+        <v>47118</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5014,9 +4940,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>46752</v>
+        <v>47149</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5032,9 +4958,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>46783</v>
+        <v>47177</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5050,9 +4976,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>46812</v>
+        <v>47208</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5068,9 +4994,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>46843</v>
+        <v>47238</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5086,9 +5012,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>46873</v>
+        <v>47269</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5104,9 +5030,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>46904</v>
+        <v>47299</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5122,9 +5048,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>46934</v>
+        <v>47330</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5140,9 +5066,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>46965</v>
+        <v>47361</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5158,10 +5084,8 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40">
-        <v>46996</v>
-      </c>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -5176,10 +5100,8 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40">
-        <v>47026</v>
-      </c>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5194,10 +5116,8 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40">
-        <v>47057</v>
-      </c>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5212,10 +5132,8 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40">
-        <v>47087</v>
-      </c>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -5230,10 +5148,8 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40">
-        <v>47118</v>
-      </c>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -5248,10 +5164,8 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40">
-        <v>47149</v>
-      </c>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -5266,10 +5180,8 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40">
-        <v>47177</v>
-      </c>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -5284,10 +5196,8 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40">
-        <v>47208</v>
-      </c>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -5302,10 +5212,8 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40">
-        <v>47238</v>
-      </c>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -5320,10 +5228,8 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40">
-        <v>47269</v>
-      </c>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -5338,10 +5244,8 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40">
-        <v>47299</v>
-      </c>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -5356,10 +5260,8 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="40">
-        <v>47330</v>
-      </c>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -5374,10 +5276,8 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40">
-        <v>47361</v>
-      </c>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -5392,7 +5292,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5408,7 +5308,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5424,7 +5324,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5440,7 +5340,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5456,7 +5356,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5472,7 +5372,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5488,7 +5388,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5504,7 +5404,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5520,7 +5420,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5536,7 +5436,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5552,7 +5452,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5568,7 +5468,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5584,7 +5484,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5600,7 +5500,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5616,7 +5516,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5632,7 +5532,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5648,229 +5548,21 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="40"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="39"/>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="41"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="43"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="20"/>
-      <c r="G148" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H148" s="39"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="43"/>
       <c r="I148" s="9"/>
-      <c r="J148" s="11"/>
-      <c r="K148" s="20"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="40"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H149" s="39"/>
-      <c r="I149" s="9"/>
-      <c r="J149" s="11"/>
-      <c r="K149" s="20"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="40"/>
-      <c r="B150" s="20"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H150" s="39"/>
-      <c r="I150" s="9"/>
-      <c r="J150" s="11"/>
-      <c r="K150" s="20"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="40"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="39"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="20"/>
-      <c r="G151" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H151" s="39"/>
-      <c r="I151" s="9"/>
-      <c r="J151" s="11"/>
-      <c r="K151" s="20"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="40"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H152" s="39"/>
-      <c r="I152" s="9"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="20"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="40"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H153" s="39"/>
-      <c r="I153" s="9"/>
-      <c r="J153" s="11"/>
-      <c r="K153" s="20"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="40"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="39"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H154" s="39"/>
-      <c r="I154" s="9"/>
-      <c r="J154" s="11"/>
-      <c r="K154" s="20"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="40"/>
-      <c r="B155" s="20"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="39"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H155" s="39"/>
-      <c r="I155" s="9"/>
-      <c r="J155" s="11"/>
-      <c r="K155" s="20"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="40"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="39"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H156" s="39"/>
-      <c r="I156" s="9"/>
-      <c r="J156" s="11"/>
-      <c r="K156" s="20"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="40"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="39"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="20"/>
-      <c r="G157" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H157" s="39"/>
-      <c r="I157" s="9"/>
-      <c r="J157" s="11"/>
-      <c r="K157" s="20"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="40"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H158" s="39"/>
-      <c r="I158" s="9"/>
-      <c r="J158" s="11"/>
-      <c r="K158" s="20"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="40"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="20"/>
-      <c r="G159" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H159" s="39"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="11"/>
-      <c r="K159" s="20"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H160" s="39"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="11"/>
-      <c r="K160" s="20"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="41"/>
-      <c r="B161" s="15"/>
-      <c r="C161" s="42"/>
-      <c r="D161" s="43"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H161" s="43"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="15"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5887,10 +5579,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5913,28 +5605,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -5947,7 +5639,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5976,7 +5668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -6000,17 +5692,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>55</v>
       </c>
@@ -6034,10 +5726,10 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>8.8269999999999911</v>
+        <v>32.326999999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -6065,7 +5757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6091,7 +5783,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6117,7 +5809,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6143,7 +5835,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6169,7 +5861,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6195,7 +5887,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6221,7 +5913,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6247,7 +5939,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6267,7 +5959,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6287,7 +5979,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6307,7 +5999,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6328,7 +6020,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6349,7 +6041,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6370,7 +6062,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6391,7 +6083,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6412,7 +6104,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6433,7 +6125,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6454,7 +6146,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6475,7 +6167,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6496,7 +6188,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6517,7 +6209,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6538,7 +6230,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6559,7 +6251,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6580,7 +6272,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6601,7 +6293,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6622,7 +6314,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6643,7 +6335,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6664,7 +6356,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6685,7 +6377,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6706,7 +6398,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6727,7 +6419,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6736,7 +6428,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6745,7 +6437,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6754,7 +6446,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6763,7 +6455,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6772,7 +6464,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6781,7 +6473,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6790,7 +6482,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6799,7 +6491,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6808,7 +6500,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6817,7 +6509,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6826,7 +6518,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6835,7 +6527,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6844,7 +6536,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6853,7 +6545,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6862,7 +6554,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6871,7 +6563,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6880,7 +6572,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6889,7 +6581,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6898,7 +6590,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6907,7 +6599,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6916,7 +6608,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6925,7 +6617,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6934,7 +6626,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6943,7 +6635,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6952,7 +6644,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6961,7 +6653,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6970,7 +6662,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6979,7 +6671,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6988,7 +6680,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/PERIDO, BEVERLY.xlsx
+++ b/REGULAR/CTO/PERIDO, BEVERLY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043EE690-2892-4570-B157-4B3321BCDF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -290,12 +289,18 @@
   </si>
   <si>
     <t>UT(0-1-43)</t>
+  </si>
+  <si>
+    <t>SOLO(1-0-0)</t>
+  </si>
+  <si>
+    <t>SOLO 01/30/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -996,7 +1001,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1039,7 +1044,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,7 +1108,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1168,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,7 +1234,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,7 +1297,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1395,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1449,7 +1454,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1519,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,7 +1562,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1637,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1823,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1884,7 +1889,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1947,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +2013,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2069,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2144,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2187,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2253,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,7 +2309,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2388,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2400,25 +2405,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2725,7 +2730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2735,7 +2740,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2743,34 +2748,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A46" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2791,7 +2796,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2813,7 +2818,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2835,7 +2840,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2843,7 +2848,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2856,7 +2861,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2873,7 +2878,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2908,7 +2913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2932,7 +2937,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2954,7 +2959,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44621</v>
       </c>
@@ -2978,7 +2983,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="50"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44652</v>
       </c>
@@ -3002,7 +3007,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44682</v>
       </c>
@@ -3026,7 +3031,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>65</v>
@@ -3046,7 +3051,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="50"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44713</v>
       </c>
@@ -3070,7 +3075,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>44743</v>
       </c>
@@ -3096,7 +3101,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="15" t="s">
         <v>48</v>
@@ -3118,7 +3123,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>62</v>
@@ -3138,7 +3143,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="50"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>44774</v>
       </c>
@@ -3164,7 +3169,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>68</v>
@@ -3184,7 +3189,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>44805</v>
       </c>
@@ -3210,7 +3215,7 @@
         <v>44827</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>61</v>
@@ -3230,7 +3235,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>44835</v>
       </c>
@@ -3254,7 +3259,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -3270,7 +3275,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44866</v>
       </c>
@@ -3294,7 +3299,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>59</v>
@@ -3314,7 +3319,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="50"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44896</v>
       </c>
@@ -3340,7 +3345,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>58</v>
@@ -3360,7 +3365,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="50"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>51</v>
       </c>
@@ -3378,7 +3383,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="50"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44927</v>
       </c>
@@ -3404,7 +3409,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>84</v>
@@ -3424,7 +3429,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="50"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44958</v>
       </c>
@@ -3448,7 +3453,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>83</v>
@@ -3468,7 +3473,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="50"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44986</v>
       </c>
@@ -3492,7 +3497,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>50</v>
@@ -3512,7 +3517,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>82</v>
@@ -3532,7 +3537,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="50"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>45017</v>
       </c>
@@ -3558,7 +3563,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="51" t="s">
         <v>80</v>
@@ -3578,7 +3583,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>45047</v>
       </c>
@@ -3602,7 +3607,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>45078</v>
       </c>
@@ -3628,7 +3633,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>78</v>
@@ -3648,7 +3653,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>45108</v>
       </c>
@@ -3674,7 +3679,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>45139</v>
       </c>
@@ -3700,7 +3705,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>75</v>
@@ -3720,7 +3725,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="50"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>45170</v>
       </c>
@@ -3744,7 +3749,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>45200</v>
       </c>
@@ -3768,7 +3773,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>45231</v>
       </c>
@@ -3792,7 +3797,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>45261</v>
       </c>
@@ -3816,7 +3821,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>71</v>
@@ -3836,7 +3841,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>70</v>
       </c>
@@ -3854,7 +3859,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>45322</v>
       </c>
@@ -3878,11 +3883,13 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>45351</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C52" s="13"/>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
@@ -3894,9 +3901,11 @@
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>45382</v>
       </c>
@@ -3914,7 +3923,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>45412</v>
       </c>
@@ -3932,7 +3941,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>45443</v>
       </c>
@@ -3950,7 +3959,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>45473</v>
       </c>
@@ -3968,7 +3977,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>45504</v>
       </c>
@@ -3986,7 +3995,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>45535</v>
       </c>
@@ -4004,7 +4013,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>45565</v>
       </c>
@@ -4022,7 +4031,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>45596</v>
       </c>
@@ -4040,7 +4049,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>45626</v>
       </c>
@@ -4058,7 +4067,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>45657</v>
       </c>
@@ -4076,7 +4085,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>45688</v>
       </c>
@@ -4094,7 +4103,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>45716</v>
       </c>
@@ -4112,7 +4121,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>45747</v>
       </c>
@@ -4130,7 +4139,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>45777</v>
       </c>
@@ -4148,7 +4157,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>45808</v>
       </c>
@@ -4166,7 +4175,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>45838</v>
       </c>
@@ -4184,7 +4193,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>45869</v>
       </c>
@@ -4202,7 +4211,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>45900</v>
       </c>
@@ -4220,7 +4229,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>45930</v>
       </c>
@@ -4238,7 +4247,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45961</v>
       </c>
@@ -4256,7 +4265,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>45991</v>
       </c>
@@ -4274,7 +4283,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>46022</v>
       </c>
@@ -4292,7 +4301,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>46053</v>
       </c>
@@ -4310,7 +4319,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>46081</v>
       </c>
@@ -4328,7 +4337,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>46112</v>
       </c>
@@ -4346,7 +4355,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>46142</v>
       </c>
@@ -4364,7 +4373,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>46173</v>
       </c>
@@ -4382,7 +4391,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>46203</v>
       </c>
@@ -4400,7 +4409,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>46234</v>
       </c>
@@ -4418,7 +4427,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>46265</v>
       </c>
@@ -4436,7 +4445,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>46295</v>
       </c>
@@ -4454,7 +4463,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>46326</v>
       </c>
@@ -4472,7 +4481,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>46356</v>
       </c>
@@ -4490,7 +4499,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>46387</v>
       </c>
@@ -4508,7 +4517,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>46418</v>
       </c>
@@ -4526,7 +4535,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>46446</v>
       </c>
@@ -4544,7 +4553,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>46477</v>
       </c>
@@ -4562,7 +4571,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>46507</v>
       </c>
@@ -4580,7 +4589,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>46538</v>
       </c>
@@ -4598,7 +4607,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>46568</v>
       </c>
@@ -4616,7 +4625,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>46599</v>
       </c>
@@ -4634,7 +4643,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>46630</v>
       </c>
@@ -4652,7 +4661,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>46660</v>
       </c>
@@ -4670,7 +4679,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>46691</v>
       </c>
@@ -4688,7 +4697,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>46721</v>
       </c>
@@ -4706,7 +4715,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>46752</v>
       </c>
@@ -4724,7 +4733,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>46783</v>
       </c>
@@ -4742,7 +4751,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>46812</v>
       </c>
@@ -4760,7 +4769,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>46843</v>
       </c>
@@ -4778,7 +4787,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>46873</v>
       </c>
@@ -4796,7 +4805,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>46904</v>
       </c>
@@ -4814,7 +4823,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>46934</v>
       </c>
@@ -4832,7 +4841,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>46965</v>
       </c>
@@ -4850,7 +4859,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>46996</v>
       </c>
@@ -4868,7 +4877,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>47026</v>
       </c>
@@ -4886,7 +4895,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>47057</v>
       </c>
@@ -4904,7 +4913,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>47087</v>
       </c>
@@ -4922,7 +4931,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>47118</v>
       </c>
@@ -4940,7 +4949,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>47149</v>
       </c>
@@ -4958,7 +4967,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>47177</v>
       </c>
@@ -4976,7 +4985,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>47208</v>
       </c>
@@ -4994,7 +5003,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>47238</v>
       </c>
@@ -5012,7 +5021,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>47269</v>
       </c>
@@ -5030,7 +5039,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>47299</v>
       </c>
@@ -5048,7 +5057,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>47330</v>
       </c>
@@ -5066,7 +5075,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>47361</v>
       </c>
@@ -5084,7 +5093,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5100,7 +5109,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5116,7 +5125,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5132,7 +5141,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5148,7 +5157,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5164,7 +5173,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5180,7 +5189,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5196,7 +5205,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5212,7 +5221,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5228,7 +5237,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5244,7 +5253,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5260,7 +5269,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5276,7 +5285,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5292,7 +5301,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5308,7 +5317,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5324,7 +5333,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5340,7 +5349,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5356,7 +5365,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5372,7 +5381,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5388,7 +5397,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5404,7 +5413,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5420,7 +5429,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5436,7 +5445,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5452,7 +5461,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5468,7 +5477,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5484,7 +5493,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5500,7 +5509,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5516,7 +5525,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5532,7 +5541,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5548,7 +5557,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="41"/>
       <c r="B148" s="15"/>
       <c r="C148" s="42"/>
@@ -5579,10 +5588,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5605,28 +5614,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -5639,7 +5648,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5668,7 +5677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5692,17 +5701,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>55</v>
       </c>
@@ -5726,7 +5735,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
         <v>32.326999999999998</v>
@@ -5757,7 +5766,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5783,7 +5792,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5809,7 +5818,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5835,7 +5844,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5861,7 +5870,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5887,7 +5896,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5913,7 +5922,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5939,7 +5948,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5959,7 +5968,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5979,7 +5988,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5999,7 +6008,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6020,7 +6029,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6041,7 +6050,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6062,7 +6071,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6083,7 +6092,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6104,7 +6113,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6125,7 +6134,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6146,7 +6155,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6167,7 +6176,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6188,7 +6197,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6209,7 +6218,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6230,7 +6239,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6251,7 +6260,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6272,7 +6281,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6293,7 +6302,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6314,7 +6323,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6335,7 +6344,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6356,7 +6365,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6377,7 +6386,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6398,7 +6407,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6419,7 +6428,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6428,7 +6437,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6437,7 +6446,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6446,7 +6455,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6455,7 +6464,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6464,7 +6473,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6473,7 +6482,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6482,7 +6491,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6491,7 +6500,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6500,7 +6509,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6509,7 +6518,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6518,7 +6527,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6527,7 +6536,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6536,7 +6545,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6545,7 +6554,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6554,7 +6563,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6563,7 +6572,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6572,7 +6581,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6581,7 +6590,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6590,7 +6599,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6599,7 +6608,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6608,7 +6617,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6617,7 +6626,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6626,7 +6635,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6635,7 +6644,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6644,7 +6653,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6653,7 +6662,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6662,7 +6671,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6671,7 +6680,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6680,7 +6689,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
